--- a/data/trans_orig/P1412-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>9463</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4313</v>
+        <v>4346</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17934</v>
+        <v>18111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009065159900513781</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00413153724729951</v>
+        <v>0.004163462575882425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01717894645759425</v>
+        <v>0.01734924422251649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -764,19 +764,19 @@
         <v>6620</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2222</v>
+        <v>2343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13390</v>
+        <v>14615</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005923691964645003</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001988233831704174</v>
+        <v>0.002096513498101094</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01198197715889182</v>
+        <v>0.01307876205117581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -785,19 +785,19 @@
         <v>16083</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9021</v>
+        <v>9504</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25917</v>
+        <v>25361</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007440986378648777</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004173484543678284</v>
+        <v>0.004397195804460742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01199072518303011</v>
+        <v>0.0117335815004347</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>1034472</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1026001</v>
+        <v>1025824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1039622</v>
+        <v>1039589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9909348400994862</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9828210535424058</v>
+        <v>0.9826507557774835</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9958684627527006</v>
+        <v>0.9958365374241176</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1023</v>
@@ -835,19 +835,19 @@
         <v>1110850</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1104080</v>
+        <v>1102855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1115248</v>
+        <v>1115127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.994076308035355</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9880180228411082</v>
+        <v>0.9869212379488242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9980117661682958</v>
+        <v>0.997903486501899</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1992</v>
@@ -856,19 +856,19 @@
         <v>2145322</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2135488</v>
+        <v>2136044</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2152384</v>
+        <v>2151901</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9925590136213512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9880092748169699</v>
+        <v>0.9882664184995652</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9958265154563216</v>
+        <v>0.9956028041955393</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>8421</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3736</v>
+        <v>4032</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19904</v>
+        <v>19276</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008618797609600385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003823765928140361</v>
+        <v>0.004126590056700727</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02037130161905645</v>
+        <v>0.01972863482228177</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -981,19 +981,19 @@
         <v>9662</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5174</v>
+        <v>4389</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17967</v>
+        <v>17661</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008852802424919965</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004740811955660532</v>
+        <v>0.004021774427055104</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01646274196081025</v>
+        <v>0.01618183242847478</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1002,19 +1002,19 @@
         <v>18083</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10313</v>
+        <v>10311</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28352</v>
+        <v>29351</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008742265805424407</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004985912696390658</v>
+        <v>0.004984740867164493</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01370688224841635</v>
+        <v>0.01419005529297733</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>968652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>957169</v>
+        <v>957797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>973337</v>
+        <v>973041</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9913812023903996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9796286983809436</v>
+        <v>0.9802713651777182</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961762340718595</v>
+        <v>0.9958734099432993</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1009</v>
@@ -1052,19 +1052,19 @@
         <v>1081718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1073413</v>
+        <v>1073719</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1086206</v>
+        <v>1086991</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9911471975750801</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9835372580391899</v>
+        <v>0.9838181675715254</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9952591880443394</v>
+        <v>0.9959782255729449</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1926</v>
@@ -1073,19 +1073,19 @@
         <v>2050370</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2040101</v>
+        <v>2039102</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2058140</v>
+        <v>2058142</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9912577341945756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9862931177515837</v>
+        <v>0.9858099447070227</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9950140873036094</v>
+        <v>0.9950152591328355</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6203</v>
+        <v>5170</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001168866392878661</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.00700818266249927</v>
+        <v>0.005840944985385534</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1198,19 +1198,19 @@
         <v>5329</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11613</v>
+        <v>12002</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006084489277113056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002339650182903988</v>
+        <v>0.002332132987364906</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01325938659794816</v>
+        <v>0.01370466304220068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1219,19 +1219,19 @@
         <v>6363</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2243</v>
+        <v>2989</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13368</v>
+        <v>13676</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003613670279398184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001273617532898535</v>
+        <v>0.001697161018731758</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007591530061573822</v>
+        <v>0.007766314088880514</v>
       </c>
     </row>
     <row r="11">
@@ -1248,7 +1248,7 @@
         <v>884080</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>878912</v>
+        <v>879945</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>885115</v>
@@ -1257,7 +1257,7 @@
         <v>0.9988311336071214</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9929918173375007</v>
+        <v>0.9941590550146144</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1269,19 +1269,19 @@
         <v>870467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>864183</v>
+        <v>863794</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>873747</v>
+        <v>873754</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.993915510722887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9867406134020521</v>
+        <v>0.9862953369577994</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9976603498170961</v>
+        <v>0.9976678670126351</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1645</v>
@@ -1290,19 +1290,19 @@
         <v>1754548</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1747543</v>
+        <v>1747235</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1758668</v>
+        <v>1757922</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9963863297206018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9924084699384266</v>
+        <v>0.9922336859111197</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9987263824671014</v>
+        <v>0.9983028389812683</v>
       </c>
     </row>
     <row r="12">
@@ -1397,16 +1397,16 @@
         <v>1039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9246</v>
+        <v>10459</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008048933740519517</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002065323340915515</v>
+        <v>0.002065846552368303</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01838025788771046</v>
+        <v>0.02079275678595857</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1418,16 +1418,16 @@
         <v>1036</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8590</v>
+        <v>9491</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006998314268137185</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002288826672404473</v>
+        <v>0.00228823951464468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01897305382937184</v>
+        <v>0.02096317347707217</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1436,19 +1436,19 @@
         <v>7217</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3099</v>
+        <v>3036</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14410</v>
+        <v>13970</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007551263097975726</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003242299601013248</v>
+        <v>0.003177026958681404</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0150768011814941</v>
+        <v>0.01461717976079275</v>
       </c>
     </row>
     <row r="14">
@@ -1465,7 +1465,7 @@
         <v>498974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493777</v>
+        <v>492564</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>501984</v>
@@ -1474,10 +1474,10 @@
         <v>0.9919510662594805</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9816197421122895</v>
+        <v>0.9792072432140417</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9979346766590845</v>
+        <v>0.9979341534476317</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>409</v>
@@ -1486,7 +1486,7 @@
         <v>449568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>444146</v>
+        <v>443245</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>451700</v>
@@ -1495,10 +1495,10 @@
         <v>0.9930016857318628</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9810269461706281</v>
+        <v>0.9790368265229279</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9977111733275955</v>
+        <v>0.9977117604853554</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>866</v>
@@ -1507,19 +1507,19 @@
         <v>948541</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>941348</v>
+        <v>941788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>952659</v>
+        <v>952722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9924487369020243</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9849231988185059</v>
+        <v>0.9853828202392066</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9967577003989867</v>
+        <v>0.9968229730413185</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>22968</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14736</v>
+        <v>14401</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34935</v>
+        <v>34772</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006737174108406905</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004322417198695432</v>
+        <v>0.004224150323863964</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01024730697678588</v>
+        <v>0.01019976197538905</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1632,19 +1632,19 @@
         <v>24778</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16816</v>
+        <v>16285</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36494</v>
+        <v>37145</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00700475081165659</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004753716739299864</v>
+        <v>0.004603750816870694</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01031663726392913</v>
+        <v>0.01050066543587149</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -1653,19 +1653,19 @@
         <v>47746</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33991</v>
+        <v>35711</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64233</v>
+        <v>63658</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006873432249839262</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004893199725003888</v>
+        <v>0.005140878049691399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009246809752838463</v>
+        <v>0.009163989354883708</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3386177</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3374210</v>
+        <v>3374373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3394409</v>
+        <v>3394744</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9932628258915931</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9897526930232141</v>
+        <v>0.9898002380246109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9956775828013045</v>
+        <v>0.9957758496761361</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3257</v>
@@ -1703,19 +1703,19 @@
         <v>3512603</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3500887</v>
+        <v>3500236</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3520565</v>
+        <v>3521096</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9929952491883434</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9896833627360713</v>
+        <v>0.9894993345641288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9952462832607001</v>
+        <v>0.9953962491831293</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6429</v>
@@ -1724,19 +1724,19 @@
         <v>6898780</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6882293</v>
+        <v>6882868</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6912535</v>
+        <v>6910815</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9931265677501607</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9907531902471616</v>
+        <v>0.9908360106451164</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9951068002749962</v>
+        <v>0.9948591219503087</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>10016</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4654</v>
+        <v>4823</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18838</v>
+        <v>17668</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008879210134106903</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004126198420189745</v>
+        <v>0.004276001199171953</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01670043501805873</v>
+        <v>0.01566298305519922</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2089,19 +2089,19 @@
         <v>9282</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4515</v>
+        <v>4317</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18514</v>
+        <v>17903</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007369168002334536</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003584462947027423</v>
+        <v>0.003427014025522222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01469885300579514</v>
+        <v>0.01421375114537181</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -2110,19 +2110,19 @@
         <v>19298</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11873</v>
+        <v>11142</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31135</v>
+        <v>29617</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008082584531693686</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004972874314608335</v>
+        <v>0.004666562877667834</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01304067038275607</v>
+        <v>0.0124048672241316</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1117981</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1109159</v>
+        <v>1110329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1123343</v>
+        <v>1123174</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9911207898658931</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9832995649819397</v>
+        <v>0.984337016944801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9958738015798102</v>
+        <v>0.9957239988008281</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1180</v>
@@ -2160,19 +2160,19 @@
         <v>1250279</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1241047</v>
+        <v>1241658</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1255046</v>
+        <v>1255244</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9926308319976654</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9853011469942042</v>
+        <v>0.9857862488546283</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9964155370529725</v>
+        <v>0.9965729859744779</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2236</v>
@@ -2181,19 +2181,19 @@
         <v>2368260</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2356423</v>
+        <v>2357941</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2375685</v>
+        <v>2376416</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9919174154683064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9869593296172436</v>
+        <v>0.9875951327758691</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9950271256853915</v>
+        <v>0.9953334371223322</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>7174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3016</v>
+        <v>3077</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15010</v>
+        <v>13445</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007893879327437722</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003318526317480207</v>
+        <v>0.003385473003940201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0165159885505925</v>
+        <v>0.01479411023889014</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2306,19 +2306,19 @@
         <v>4328</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10568</v>
+        <v>10591</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004300140153228017</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001072038365811133</v>
+        <v>0.001061356699048866</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01049974730317578</v>
+        <v>0.01052283654902981</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -2327,19 +2327,19 @@
         <v>11502</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6277</v>
+        <v>6169</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20454</v>
+        <v>19920</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006005397335696054</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00327744912653578</v>
+        <v>0.00322100114769553</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01067920731444708</v>
+        <v>0.0104006540971642</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>901651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>893815</v>
+        <v>895380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>905809</v>
+        <v>905748</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9921061206725623</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9834840114494076</v>
+        <v>0.9852058897611101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9966814736825198</v>
+        <v>0.9966145269960598</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>947</v>
@@ -2377,19 +2377,19 @@
         <v>1002147</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>995907</v>
+        <v>995884</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1005396</v>
+        <v>1005407</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.995699859846772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9895002526968246</v>
+        <v>0.9894771634509705</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.998927961634189</v>
+        <v>0.9989386433009512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1821</v>
@@ -2398,19 +2398,19 @@
         <v>1903798</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1894846</v>
+        <v>1895380</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1909023</v>
+        <v>1909131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.993994602664304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.989320792685553</v>
+        <v>0.9895993459028357</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9967225508734642</v>
+        <v>0.9967789988523045</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>5705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2045</v>
+        <v>1969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11817</v>
+        <v>11712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006925176123739909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002482995683584021</v>
+        <v>0.00239039453096806</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01434501992608712</v>
+        <v>0.01421824620619034</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7770</v>
+        <v>7588</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00296994803195431</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01007705805437602</v>
+        <v>0.009840672296215712</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -2544,19 +2544,19 @@
         <v>7995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3354</v>
+        <v>3695</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15493</v>
+        <v>15525</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005012912130967037</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002102818613406323</v>
+        <v>0.002316645784587625</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009714312930300919</v>
+        <v>0.009734499655970156</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>818054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>811942</v>
+        <v>812047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>821714</v>
+        <v>821790</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9930748238762601</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9856549800739126</v>
+        <v>0.9857817537938097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9975170043164159</v>
+        <v>0.997609605469032</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>726</v>
@@ -2594,7 +2594,7 @@
         <v>768769</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>763289</v>
+        <v>763471</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>771059</v>
@@ -2603,7 +2603,7 @@
         <v>0.9970300519680457</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9899229419456242</v>
+        <v>0.9901593277037846</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2615,19 +2615,19 @@
         <v>1586823</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1579325</v>
+        <v>1579293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1591464</v>
+        <v>1591123</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.994987087869033</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.990285687069699</v>
+        <v>0.9902655003440297</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9978971813865936</v>
+        <v>0.9976833542154123</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>3260</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9275</v>
+        <v>9649</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006433486147141656</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001559725307333377</v>
+        <v>0.00160131397253901</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01830416348216926</v>
+        <v>0.01904257435058827</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -2740,19 +2740,19 @@
         <v>3283</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9418</v>
+        <v>8834</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006704791213349986</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002032172718947144</v>
+        <v>0.002033177164311759</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01923205425393129</v>
+        <v>0.01803974525358245</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -2761,19 +2761,19 @@
         <v>6543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2562</v>
+        <v>2861</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14204</v>
+        <v>13963</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006566823795662976</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002571196889920131</v>
+        <v>0.002870950838677379</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01425558840235431</v>
+        <v>0.01401332154740994</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>503441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>497426</v>
+        <v>497052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505911</v>
+        <v>505890</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9935665138528583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.981695836517831</v>
+        <v>0.9809574256494118</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9984402746926666</v>
+        <v>0.998398686027461</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>452</v>
@@ -2811,19 +2811,19 @@
         <v>486415</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>480280</v>
+        <v>480864</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488703</v>
+        <v>488702</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.99329520878665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9807679457460687</v>
+        <v>0.9819602547464176</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9979678272810528</v>
+        <v>0.9979668228356883</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>920</v>
@@ -2832,19 +2832,19 @@
         <v>989855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>982194</v>
+        <v>982435</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>993836</v>
+        <v>993537</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.993433176204337</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9857444115976458</v>
+        <v>0.9859866784525902</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9974288031100799</v>
+        <v>0.9971290491613227</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>26154</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17758</v>
+        <v>16870</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37972</v>
+        <v>37510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007767216208613912</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005273608460352664</v>
+        <v>0.005010088031335224</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01127674144957772</v>
+        <v>0.01113942777139547</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -2957,19 +2957,19 @@
         <v>19183</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11814</v>
+        <v>12365</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30682</v>
+        <v>30126</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005439283595921655</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003349877255079213</v>
+        <v>0.003506083469421972</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008699629709173103</v>
+        <v>0.008541978885703095</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -2978,19 +2978,19 @@
         <v>45338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33186</v>
+        <v>33220</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60488</v>
+        <v>60486</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006576318892940668</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004813632409504024</v>
+        <v>0.004818620935049999</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00877398004459983</v>
+        <v>0.008773606358170755</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3341128</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3329310</v>
+        <v>3329772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3349524</v>
+        <v>3350412</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9922327837913861</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9887232585504221</v>
+        <v>0.988860572228605</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9947263915396471</v>
+        <v>0.9949899119686648</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3305</v>
@@ -3028,19 +3028,19 @@
         <v>3507609</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3496110</v>
+        <v>3496666</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3514978</v>
+        <v>3514427</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9945607164040784</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.991300370290827</v>
+        <v>0.9914580211142969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9966501227449208</v>
+        <v>0.9964939165305781</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6484</v>
@@ -3049,19 +3049,19 @@
         <v>6848737</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6833587</v>
+        <v>6833589</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6860889</v>
+        <v>6860855</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9934236811070594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9912260199554004</v>
+        <v>0.9912263936418295</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9951863675904961</v>
+        <v>0.9951813790649501</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>6767</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3267</v>
+        <v>3411</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13660</v>
+        <v>13103</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01366821564290197</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006597748324093839</v>
+        <v>0.006889945941955447</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02758952172274881</v>
+        <v>0.02646497036739012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -3414,19 +3414,19 @@
         <v>8753</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5132</v>
+        <v>5096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14148</v>
+        <v>14944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01406824370825258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008248586977467475</v>
+        <v>0.008190956287027091</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0227402578436063</v>
+        <v>0.02401957086824484</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -3435,19 +3435,19 @@
         <v>15520</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9786</v>
+        <v>9572</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22840</v>
+        <v>23673</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01389097303054588</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008758641597110366</v>
+        <v>0.008566898700709664</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02044219020465314</v>
+        <v>0.02118790278342687</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>488350</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>481457</v>
+        <v>482014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>491850</v>
+        <v>491706</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.986331784357098</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9724104782772511</v>
+        <v>0.97353502963261</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9934022516759061</v>
+        <v>0.9931100540580445</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>844</v>
@@ -3485,19 +3485,19 @@
         <v>613408</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>608013</v>
+        <v>607217</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>617029</v>
+        <v>617065</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9859317562917473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9772597421563934</v>
+        <v>0.9759804291317552</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9917514130225327</v>
+        <v>0.9918090437129728</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1288</v>
@@ -3506,19 +3506,19 @@
         <v>1101758</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1094438</v>
+        <v>1093605</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1107492</v>
+        <v>1107706</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9861090269694541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9795578097953469</v>
+        <v>0.978812097216573</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9912413584028895</v>
+        <v>0.9914331012992903</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>10973</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6242</v>
+        <v>6378</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19880</v>
+        <v>19610</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01142818259028316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006501340047682123</v>
+        <v>0.006642453061265339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02070583629669018</v>
+        <v>0.02042464814674839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -3631,19 +3631,19 @@
         <v>4838</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2220</v>
+        <v>2148</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8556</v>
+        <v>8959</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004338313303776702</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001991141101119548</v>
+        <v>0.001925745617114818</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007672075430364099</v>
+        <v>0.00803355082068365</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -3652,19 +3652,19 @@
         <v>15811</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9704</v>
+        <v>10021</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24236</v>
+        <v>24832</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.007618433246380619</v>
+        <v>0.007618433246380618</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004675954926191534</v>
+        <v>0.00482885690534225</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01167840346893246</v>
+        <v>0.01196529377853529</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>949164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>940257</v>
+        <v>940527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>953895</v>
+        <v>953759</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9885718174097169</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9792941637033099</v>
+        <v>0.9795753518532516</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.993498659952318</v>
+        <v>0.9933575469387347</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1596</v>
@@ -3702,19 +3702,19 @@
         <v>1110329</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1106611</v>
+        <v>1106208</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1112947</v>
+        <v>1113019</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9956616866962232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9923279245696357</v>
+        <v>0.9919664491793162</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9980088588988806</v>
+        <v>0.9980742543828849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2491</v>
@@ -3723,19 +3723,19 @@
         <v>2059492</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2051067</v>
+        <v>2050471</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2065599</v>
+        <v>2065282</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9923815667536194</v>
+        <v>0.9923815667536192</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9883215965310675</v>
+        <v>0.9880347062214646</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9953240450738084</v>
+        <v>0.9951711430946578</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>7479</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4028</v>
+        <v>3720</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14163</v>
+        <v>14584</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007147125485449402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003849347389046702</v>
+        <v>0.003554655295832514</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01353353062869606</v>
+        <v>0.01393578108347966</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3848,19 +3848,19 @@
         <v>2279</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>610</v>
+        <v>723</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6035</v>
+        <v>6084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002178474810814274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.000582606161866605</v>
+        <v>0.000690783500356042</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005768572807039869</v>
+        <v>0.005814792594857899</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -3869,19 +3869,19 @@
         <v>9759</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5447</v>
+        <v>5292</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16819</v>
+        <v>16194</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.004663050869842353</v>
+        <v>0.004663050869842352</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002602655201550532</v>
+        <v>0.00252855525751252</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008036704627169128</v>
+        <v>0.007738273002271762</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>1039000</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1032316</v>
+        <v>1031895</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1042451</v>
+        <v>1042759</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9928528745145506</v>
+        <v>0.9928528745145505</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.986466469371304</v>
+        <v>0.9860642189165203</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9961506526109533</v>
+        <v>0.9964453447041676</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1510</v>
@@ -3919,19 +3919,19 @@
         <v>1043989</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1040233</v>
+        <v>1040184</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1045658</v>
+        <v>1045545</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9978215251891859</v>
+        <v>0.9978215251891857</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9942314271929603</v>
+        <v>0.9941852074051435</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9994173938381333</v>
+        <v>0.999309216499644</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2529</v>
@@ -3940,19 +3940,19 @@
         <v>2082988</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2075928</v>
+        <v>2076553</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2087300</v>
+        <v>2087455</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9953369491301577</v>
+        <v>0.9953369491301576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9919632953728312</v>
+        <v>0.9922617269977281</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9973973447984497</v>
+        <v>0.9974714447424875</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>7452</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3528</v>
+        <v>3704</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12732</v>
+        <v>13199</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007635434935942821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003614914348720608</v>
+        <v>0.003795760286518447</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0130458727392022</v>
+        <v>0.01352415809873367</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4065,19 +4065,19 @@
         <v>5102</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2260</v>
+        <v>2477</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9603</v>
+        <v>9256</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.005619526559881727</v>
+        <v>0.005619526559881728</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002489532400252083</v>
+        <v>0.002727899788892133</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01057779443243798</v>
+        <v>0.0101953434281367</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -4086,19 +4086,19 @@
         <v>12553</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7610</v>
+        <v>7142</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19604</v>
+        <v>19394</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.006663907882037663</v>
+        <v>0.006663907882037662</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004040013057303926</v>
+        <v>0.003791234976988742</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01040652529490309</v>
+        <v>0.0102954704163871</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>968477</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>963197</v>
+        <v>962730</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>972401</v>
+        <v>972225</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9923645650640571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9869541272607979</v>
+        <v>0.9864758419012661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9963850856512794</v>
+        <v>0.9962042397134815</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1311</v>
@@ -4136,19 +4136,19 @@
         <v>902748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>898247</v>
+        <v>898594</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>905590</v>
+        <v>905373</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.994380473440118</v>
+        <v>0.9943804734401182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9894222055675619</v>
+        <v>0.9898046565718632</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9975104675997477</v>
+        <v>0.9972721002111079</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2248</v>
@@ -4157,19 +4157,19 @@
         <v>1871226</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1864175</v>
+        <v>1864385</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1876169</v>
+        <v>1876637</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9933360921179623</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9895934747050968</v>
+        <v>0.989704529583613</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9959599869426961</v>
+        <v>0.9962087650230114</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>32671</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23624</v>
+        <v>23969</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44059</v>
+        <v>45876</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009394514118532631</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006792958310806832</v>
+        <v>0.006892382168230333</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01266911036825998</v>
+        <v>0.01319168484825528</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -4282,19 +4282,19 @@
         <v>20972</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15029</v>
+        <v>14906</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28664</v>
+        <v>28537</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005681138502001467</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00407123575092971</v>
+        <v>0.004038041720715478</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007765086152083255</v>
+        <v>0.007730589538617541</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -4303,19 +4303,19 @@
         <v>53643</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42460</v>
+        <v>41731</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68054</v>
+        <v>65930</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.007482459592659865</v>
+        <v>0.007482459592659863</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005922659093266038</v>
+        <v>0.00582089694328262</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009492717105578126</v>
+        <v>0.009196461843361009</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3444991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3433603</v>
+        <v>3431786</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3454038</v>
+        <v>3453693</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9906054858814675</v>
+        <v>0.9906054858814672</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9873308896317401</v>
+        <v>0.9868083151517448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9932070416891933</v>
+        <v>0.9931076178317704</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5261</v>
@@ -4353,19 +4353,19 @@
         <v>3670474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3662782</v>
+        <v>3662909</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3676417</v>
+        <v>3676540</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9943188614979986</v>
+        <v>0.9943188614979985</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9922349138479166</v>
+        <v>0.9922694104613824</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9959287642490703</v>
+        <v>0.9959619582792847</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8556</v>
@@ -4374,19 +4374,19 @@
         <v>7115465</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7101054</v>
+        <v>7103178</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7126648</v>
+        <v>7127377</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9925175404073403</v>
+        <v>0.99251754040734</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9905072828944218</v>
+        <v>0.990803538156639</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9940773409067337</v>
+        <v>0.9941791030567175</v>
       </c>
     </row>
     <row r="18">
